--- a/biology/Médecine/1301_en_santé_et_médecine/1301_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1301_en_santé_et_médecine/1301_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1301_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1301_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1301 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1301_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1301_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Août : un « règlement en faveur des maîtres de chirurgie » porte défense à une trentaine de barbiers parisiens d'exercer la chirurgie avant d'avoir été examinés par des maîtres en cet art[2].
-L'ordonnance qui oblige les chirurgiens de Paris à « déclarer au prévôt les blessés dans des conditions suspectes » est étendue à l'ensemble des barbiers et barbiers chirurgiens de la ville[3].
-Décret de la faculté de médecine de Paris qui défend aux médecins juifs de soigner les chrétiens[4].
-Une maison-Dieu des Apôtres est mentionnée à Paris[5].
-La maison du Saint-Esprit de Stockholm, en Suède, est mentionnée pour la première fois[6].
-Jean Ier, comte de Chalon-Arlay, fonde des hôpitaux en Franche-Comté, à Monnet, Montigny et Rochefort, tous trois ruinés en 1479 par les troupes de Louis XI[7], ainsi qu'un hôpital à Arlay[8] et un autre à Sainte-Agnès, ce dernier qui sera réuni en 1696 à l'hôpital du Saint-Sépulcre de Salins[9].
-Jean II, comte de Chalon-Auxerre, frère de Jean Ier de Chalon-Arlay, fonde en Franche-Comté des hôpitaux à Orgelet, Arinthod et Saint-Julien, qu'il place sous l'autorité des frères du Saint-Esprit[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Août : un « règlement en faveur des maîtres de chirurgie » porte défense à une trentaine de barbiers parisiens d'exercer la chirurgie avant d'avoir été examinés par des maîtres en cet art.
+L'ordonnance qui oblige les chirurgiens de Paris à « déclarer au prévôt les blessés dans des conditions suspectes » est étendue à l'ensemble des barbiers et barbiers chirurgiens de la ville.
+Décret de la faculté de médecine de Paris qui défend aux médecins juifs de soigner les chrétiens.
+Une maison-Dieu des Apôtres est mentionnée à Paris.
+La maison du Saint-Esprit de Stockholm, en Suède, est mentionnée pour la première fois.
+Jean Ier, comte de Chalon-Arlay, fonde des hôpitaux en Franche-Comté, à Monnet, Montigny et Rochefort, tous trois ruinés en 1479 par les troupes de Louis XI, ainsi qu'un hôpital à Arlay et un autre à Sainte-Agnès, ce dernier qui sera réuni en 1696 à l'hôpital du Saint-Sépulcre de Salins.
+Jean II, comte de Chalon-Auxerre, frère de Jean Ier de Chalon-Arlay, fonde en Franche-Comté des hôpitaux à Orgelet, Arinthod et Saint-Julien, qu'il place sous l'autorité des frères du Saint-Esprit.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1301_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1301_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Martin de Montevillia, médecin de Charles Ier, comte d'Anjou[11].
-1301-1328 : fl. Jean de Padua, chirurgien de Philippe le Bel, qui, en 1327-1328, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Martin de Montevillia, médecin de Charles Ier, comte d'Anjou.
+1301-1328 : fl. Jean de Padua, chirurgien de Philippe le Bel, qui, en 1327-1328, soigne au château de Conflans le fou de Mahaut, comtesse d'Artois.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1301_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1301_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1301 au plus tard : Thomas le Bourguignon[12] (né à une date inconnue), médecin français né à Thonon, dans le comté de Savoie, auteur d'un Traité d'hygiène achevé en 1286[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1301 au plus tard : Thomas le Bourguignon (né à une date inconnue), médecin français né à Thonon, dans le comté de Savoie, auteur d'un Traité d'hygiène achevé en 1286.</t>
         </is>
       </c>
     </row>
